--- a/disneyMovies.xlsx
+++ b/disneyMovies.xlsx
@@ -5,13 +5,14 @@
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
     <sheet sheetId="1" name="FEB 2020" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="TEST" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1183" uniqueCount="217">
   <si>
     <t>bot_system</t>
   </si>
@@ -659,6 +660,9 @@
   </si>
   <si>
     <t>https://www.disneyplus.com/movies/cinderella-1950/VJPw3bEy9iHj</t>
+  </si>
+  <si>
+    <t>02/26/2020</t>
   </si>
 </sst>
 </file>
@@ -5259,4 +5263,190 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB2"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="28" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U2">
+        <v>2020</v>
+      </c>
+      <c r="V2">
+        <v>6180</v>
+      </c>
+      <c r="W2" t="s">
+        <v>33</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
 </file>